--- a/311_Statistik_Keketatan_Prodi.xlsx
+++ b/311_Statistik_Keketatan_Prodi.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\#PMB\2023\01_SNBP\23snbp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6EF3DAC-7146-4D69-B034-598672BF2722}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31136C70-FF96-4E68-ADD2-B92300236F7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,6 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId4"/>
-    <externalReference r:id="rId5"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="67">
   <si>
     <t>KEDOKTERAN</t>
   </si>
@@ -237,6 +236,9 @@
   </si>
   <si>
     <t>S1</t>
+  </si>
+  <si>
+    <t>ADMINISTRASI PAJAK</t>
   </si>
 </sst>
 </file>
@@ -2027,551 +2029,6 @@
           </cell>
           <cell r="I78" t="str">
             <v>S2</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="lolos_snbp"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="C2" t="str">
-            <v>Hukum</v>
-          </cell>
-          <cell r="D2" t="str">
-            <v>S1</v>
-          </cell>
-          <cell r="E2">
-            <v>150</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="C3" t="str">
-            <v>Bimbingan dan Konseling</v>
-          </cell>
-          <cell r="D3" t="str">
-            <v>S1</v>
-          </cell>
-          <cell r="E3">
-            <v>20</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="C4" t="str">
-            <v>Pendidikan Bahasa Indonesia</v>
-          </cell>
-          <cell r="D4" t="str">
-            <v>S1</v>
-          </cell>
-          <cell r="E4">
-            <v>40</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="C5" t="str">
-            <v>Pendidikan Bahasa Inggris</v>
-          </cell>
-          <cell r="D5" t="str">
-            <v>S1</v>
-          </cell>
-          <cell r="E5">
-            <v>40</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="C6" t="str">
-            <v>Pendidikan Biologi</v>
-          </cell>
-          <cell r="D6" t="str">
-            <v>S1</v>
-          </cell>
-          <cell r="E6">
-            <v>40</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="C7" t="str">
-            <v>Pendidikan Fisika</v>
-          </cell>
-          <cell r="D7" t="str">
-            <v>S1</v>
-          </cell>
-          <cell r="E7">
-            <v>20</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="C8" t="str">
-            <v>Pendidikan Guru Pendidikan Anak Usia Dini</v>
-          </cell>
-          <cell r="D8" t="str">
-            <v>S1</v>
-          </cell>
-          <cell r="E8">
-            <v>30</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="C9" t="str">
-            <v>Pendidikan Guru Sekolah Dasar</v>
-          </cell>
-          <cell r="D9" t="str">
-            <v>S1</v>
-          </cell>
-          <cell r="E9">
-            <v>30</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="C10" t="str">
-            <v>Pendidikan IPA</v>
-          </cell>
-          <cell r="D10" t="str">
-            <v>S1</v>
-          </cell>
-          <cell r="E10">
-            <v>20</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="C11" t="str">
-            <v>Pendidikan Khusus</v>
-          </cell>
-          <cell r="D11" t="str">
-            <v>S1</v>
-          </cell>
-          <cell r="E11">
-            <v>20</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="C12" t="str">
-            <v>Pendidikan Kimia</v>
-          </cell>
-          <cell r="D12" t="str">
-            <v>S1</v>
-          </cell>
-          <cell r="E12">
-            <v>30</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="C13" t="str">
-            <v>Pendidikan Matematika</v>
-          </cell>
-          <cell r="D13" t="str">
-            <v>S1</v>
-          </cell>
-          <cell r="E13">
-            <v>40</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="C14" t="str">
-            <v>Pendidikan Non Formal</v>
-          </cell>
-          <cell r="D14" t="str">
-            <v>S1</v>
-          </cell>
-          <cell r="E14">
-            <v>30</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="C15" t="str">
-            <v>Pendidikan Pancasila dan Kewarganegaraan</v>
-          </cell>
-          <cell r="D15" t="str">
-            <v>S1</v>
-          </cell>
-          <cell r="E15">
-            <v>20</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="C16" t="str">
-            <v>Pendidikan Sejarah</v>
-          </cell>
-          <cell r="D16" t="str">
-            <v>S1</v>
-          </cell>
-          <cell r="E16">
-            <v>20</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="C17" t="str">
-            <v>Pendidikan Seni Pertunjukan</v>
-          </cell>
-          <cell r="D17" t="str">
-            <v>S1</v>
-          </cell>
-          <cell r="E17">
-            <v>20</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="C18" t="str">
-            <v>Pendidikan Sosiologi</v>
-          </cell>
-          <cell r="D18" t="str">
-            <v>S1</v>
-          </cell>
-          <cell r="E18">
-            <v>20</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="C19" t="str">
-            <v>Pendidikan Vokasional Teknik Elektro</v>
-          </cell>
-          <cell r="D19" t="str">
-            <v>S1</v>
-          </cell>
-          <cell r="E19">
-            <v>20</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="C20" t="str">
-            <v>Pendidikan Vokasional Teknik Mesin</v>
-          </cell>
-          <cell r="D20" t="str">
-            <v>S1</v>
-          </cell>
-          <cell r="E20">
-            <v>20</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="C21" t="str">
-            <v>Informatika</v>
-          </cell>
-          <cell r="D21" t="str">
-            <v>S1</v>
-          </cell>
-          <cell r="E21">
-            <v>30</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="C22" t="str">
-            <v>Teknik Elektro</v>
-          </cell>
-          <cell r="D22" t="str">
-            <v>S1</v>
-          </cell>
-          <cell r="E22">
-            <v>40</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="C23" t="str">
-            <v>Teknik Industri</v>
-          </cell>
-          <cell r="D23" t="str">
-            <v>S1</v>
-          </cell>
-          <cell r="E23">
-            <v>40</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="C24" t="str">
-            <v>Teknik Kimia</v>
-          </cell>
-          <cell r="D24" t="str">
-            <v>S1</v>
-          </cell>
-          <cell r="E24">
-            <v>41</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="C25" t="str">
-            <v>Teknik Mesin</v>
-          </cell>
-          <cell r="D25" t="str">
-            <v>S1</v>
-          </cell>
-          <cell r="E25">
-            <v>40</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="C26" t="str">
-            <v>Teknik Metalurgi</v>
-          </cell>
-          <cell r="D26" t="str">
-            <v>S1</v>
-          </cell>
-          <cell r="E26">
-            <v>40</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="C27" t="str">
-            <v>Teknik Sipil</v>
-          </cell>
-          <cell r="D27" t="str">
-            <v>S1</v>
-          </cell>
-          <cell r="E27">
-            <v>40</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="C28" t="str">
-            <v>Agribisnis</v>
-          </cell>
-          <cell r="D28" t="str">
-            <v>S1</v>
-          </cell>
-          <cell r="E28">
-            <v>73</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="C29" t="str">
-            <v>Agroekoteknologi</v>
-          </cell>
-          <cell r="D29" t="str">
-            <v>S1</v>
-          </cell>
-          <cell r="E29">
-            <v>60</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="C30" t="str">
-            <v>Ilmu Kelautan</v>
-          </cell>
-          <cell r="D30" t="str">
-            <v>S1</v>
-          </cell>
-          <cell r="E30">
-            <v>20</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="C31" t="str">
-            <v>Ilmu Perikanan</v>
-          </cell>
-          <cell r="D31" t="str">
-            <v>S1</v>
-          </cell>
-          <cell r="E31">
-            <v>50</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="C32" t="str">
-            <v>Peternakan</v>
-          </cell>
-          <cell r="D32" t="str">
-            <v>S1</v>
-          </cell>
-          <cell r="E32">
-            <v>10</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="C33" t="str">
-            <v>Teknologi Pangan</v>
-          </cell>
-          <cell r="D33" t="str">
-            <v>S1</v>
-          </cell>
-          <cell r="E33">
-            <v>40</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="C34" t="str">
-            <v>Akuntansi</v>
-          </cell>
-          <cell r="D34" t="str">
-            <v>D3</v>
-          </cell>
-          <cell r="E34">
-            <v>22</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="C35" t="str">
-            <v>Akuntansi</v>
-          </cell>
-          <cell r="D35" t="str">
-            <v>S1</v>
-          </cell>
-          <cell r="E35">
-            <v>46</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="C36" t="str">
-            <v>Ekonomi Pembangunan</v>
-          </cell>
-          <cell r="D36" t="str">
-            <v>S1</v>
-          </cell>
-          <cell r="E36">
-            <v>31</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="C37" t="str">
-            <v>Ekonomi Syariah</v>
-          </cell>
-          <cell r="D37" t="str">
-            <v>S1</v>
-          </cell>
-          <cell r="E37">
-            <v>30</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="C38" t="str">
-            <v>Manajemen</v>
-          </cell>
-          <cell r="D38" t="str">
-            <v>S1</v>
-          </cell>
-          <cell r="E38">
-            <v>46</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="C39" t="str">
-            <v>Manajemen Pemasaran</v>
-          </cell>
-          <cell r="D39" t="str">
-            <v>D3</v>
-          </cell>
-          <cell r="E39">
-            <v>22</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="C40" t="str">
-            <v>Perbankan dan Keuangan</v>
-          </cell>
-          <cell r="D40" t="str">
-            <v>D3</v>
-          </cell>
-          <cell r="E40">
-            <v>22</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="C41" t="str">
-            <v>Perpajakan</v>
-          </cell>
-          <cell r="D41" t="str">
-            <v>D3</v>
-          </cell>
-          <cell r="E41">
-            <v>22</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="C42" t="str">
-            <v>Administrasi Publik</v>
-          </cell>
-          <cell r="D42" t="str">
-            <v>S1</v>
-          </cell>
-          <cell r="E42">
-            <v>61</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="C43" t="str">
-            <v>Ilmu Komunikasi</v>
-          </cell>
-          <cell r="D43" t="str">
-            <v>S1</v>
-          </cell>
-          <cell r="E43">
-            <v>70</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="C44" t="str">
-            <v>Ilmu Pemerintahan</v>
-          </cell>
-          <cell r="D44" t="str">
-            <v>S1</v>
-          </cell>
-          <cell r="E44">
-            <v>50</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="C45" t="str">
-            <v>Gizi</v>
-          </cell>
-          <cell r="D45" t="str">
-            <v>S1</v>
-          </cell>
-          <cell r="E45">
-            <v>10</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="C46" t="str">
-            <v>Ilmu Keolahragaan</v>
-          </cell>
-          <cell r="D46" t="str">
-            <v>S1</v>
-          </cell>
-          <cell r="E46">
-            <v>10</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="C47" t="str">
-            <v>Kedokteran</v>
-          </cell>
-          <cell r="D47" t="str">
-            <v>S1</v>
-          </cell>
-          <cell r="E47">
-            <v>12</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="C48" t="str">
-            <v>Keperawatan</v>
-          </cell>
-          <cell r="D48" t="str">
-            <v>D3</v>
-          </cell>
-          <cell r="E48">
-            <v>17</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="C49" t="str">
-            <v>Keperawatan</v>
-          </cell>
-          <cell r="D49" t="str">
-            <v>S1</v>
-          </cell>
-          <cell r="E49">
-            <v>10</v>
           </cell>
         </row>
       </sheetData>
@@ -2869,8 +2326,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2955,35 +2412,29 @@
         <v>2234</v>
       </c>
       <c r="F2" s="2">
-        <f>SUMIFS([2]lolos_snbp!$E$2:$E$49,[2]lolos_snbp!$D$2:$D$49,D2,[2]lolos_snbp!$C$2:$C$49,C2)</f>
         <v>46</v>
       </c>
       <c r="G2" s="3">
-        <f>ROUND(F2/E2*100,2)</f>
         <v>2.06</v>
       </c>
       <c r="H2" s="2">
         <v>1001</v>
       </c>
       <c r="I2" s="3">
-        <f>ROUND(H2/E2*100,2)</f>
         <v>44.81</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" s="3">
-        <f>ROUND(J2/F2*100,2)</f>
         <v>0</v>
       </c>
       <c r="L2" s="2">
         <v>1233</v>
       </c>
       <c r="M2" s="3">
-        <f>100-I2</f>
         <v>55.19</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="3">
-        <f>100-K2</f>
         <v>100</v>
       </c>
     </row>
@@ -3005,35 +2456,29 @@
         <v>1983</v>
       </c>
       <c r="F3" s="2">
-        <f>SUMIFS([2]lolos_snbp!$E$2:$E$49,[2]lolos_snbp!$D$2:$D$49,D3,[2]lolos_snbp!$C$2:$C$49,C3)</f>
         <v>70</v>
       </c>
       <c r="G3" s="3">
-        <f t="shared" ref="G3:G49" si="0">ROUND(F3/E3*100,2)</f>
         <v>3.53</v>
       </c>
       <c r="H3" s="2">
         <v>785</v>
       </c>
       <c r="I3" s="3">
-        <f t="shared" ref="I3:I49" si="1">ROUND(H3/E3*100,2)</f>
         <v>39.590000000000003</v>
       </c>
       <c r="J3" s="2"/>
       <c r="K3" s="3">
-        <f t="shared" ref="K3:K49" si="2">ROUND(J3/F3*100,2)</f>
         <v>0</v>
       </c>
       <c r="L3" s="2">
         <v>1198</v>
       </c>
       <c r="M3" s="3">
-        <f t="shared" ref="M3:M49" si="3">100-I3</f>
         <v>60.41</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="3">
-        <f t="shared" ref="O3:O49" si="4">100-K3</f>
         <v>100</v>
       </c>
     </row>
@@ -3055,35 +2500,29 @@
         <v>1368</v>
       </c>
       <c r="F4" s="2">
-        <f>SUMIFS([2]lolos_snbp!$E$2:$E$49,[2]lolos_snbp!$D$2:$D$49,D4,[2]lolos_snbp!$C$2:$C$49,C4)</f>
         <v>46</v>
       </c>
       <c r="G4" s="3">
-        <f t="shared" si="0"/>
         <v>3.36</v>
       </c>
       <c r="H4" s="2">
         <v>655</v>
       </c>
       <c r="I4" s="3">
-        <f t="shared" si="1"/>
         <v>47.88</v>
       </c>
       <c r="J4" s="2"/>
       <c r="K4" s="3">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L4" s="2">
         <v>713</v>
       </c>
       <c r="M4" s="3">
-        <f t="shared" si="3"/>
         <v>52.12</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="3">
-        <f t="shared" si="4"/>
         <v>100</v>
       </c>
     </row>
@@ -3105,35 +2544,29 @@
         <v>1310</v>
       </c>
       <c r="F5" s="2">
-        <f>SUMIFS([2]lolos_snbp!$E$2:$E$49,[2]lolos_snbp!$D$2:$D$49,D5,[2]lolos_snbp!$C$2:$C$49,C5)</f>
         <v>30</v>
       </c>
       <c r="G5" s="3">
-        <f t="shared" si="0"/>
         <v>2.29</v>
       </c>
       <c r="H5" s="2">
         <v>581</v>
       </c>
       <c r="I5" s="3">
-        <f t="shared" si="1"/>
         <v>44.35</v>
       </c>
       <c r="J5" s="2"/>
       <c r="K5" s="3">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L5" s="2">
         <v>729</v>
       </c>
       <c r="M5" s="3">
-        <f t="shared" si="3"/>
         <v>55.65</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="3">
-        <f t="shared" si="4"/>
         <v>100</v>
       </c>
     </row>
@@ -3155,35 +2588,29 @@
         <v>1244</v>
       </c>
       <c r="F6" s="2">
-        <f>SUMIFS([2]lolos_snbp!$E$2:$E$49,[2]lolos_snbp!$D$2:$D$49,D6,[2]lolos_snbp!$C$2:$C$49,C6)</f>
         <v>150</v>
       </c>
       <c r="G6" s="3">
-        <f t="shared" si="0"/>
         <v>12.06</v>
       </c>
       <c r="H6" s="2">
         <v>546</v>
       </c>
       <c r="I6" s="3">
-        <f t="shared" si="1"/>
         <v>43.89</v>
       </c>
       <c r="J6" s="2"/>
       <c r="K6" s="3">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L6" s="2">
         <v>698</v>
       </c>
       <c r="M6" s="3">
-        <f t="shared" si="3"/>
         <v>56.11</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="3">
-        <f t="shared" si="4"/>
         <v>100</v>
       </c>
     </row>
@@ -3205,35 +2632,29 @@
         <v>968</v>
       </c>
       <c r="F7" s="2">
-        <f>SUMIFS([2]lolos_snbp!$E$2:$E$49,[2]lolos_snbp!$D$2:$D$49,D7,[2]lolos_snbp!$C$2:$C$49,C7)</f>
         <v>10</v>
       </c>
       <c r="G7" s="3">
-        <f t="shared" si="0"/>
         <v>1.03</v>
       </c>
       <c r="H7" s="2">
         <v>454</v>
       </c>
       <c r="I7" s="3">
-        <f t="shared" si="1"/>
         <v>46.9</v>
       </c>
       <c r="J7" s="2"/>
       <c r="K7" s="3">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L7" s="2">
         <v>514</v>
       </c>
       <c r="M7" s="3">
-        <f t="shared" si="3"/>
         <v>53.1</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="3">
-        <f t="shared" si="4"/>
         <v>100</v>
       </c>
     </row>
@@ -3255,33 +2676,27 @@
         <v>911</v>
       </c>
       <c r="F8" s="2">
-        <f>SUMIFS([2]lolos_snbp!$E$2:$E$49,[2]lolos_snbp!$D$2:$D$49,D8,[2]lolos_snbp!$C$2:$C$49,C8)</f>
         <v>61</v>
       </c>
       <c r="G8" s="3">
-        <f t="shared" si="0"/>
         <v>6.7</v>
       </c>
       <c r="H8">
         <v>341</v>
       </c>
       <c r="I8" s="3">
-        <f t="shared" si="1"/>
         <v>37.43</v>
       </c>
       <c r="K8" s="3">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L8">
         <v>570</v>
       </c>
       <c r="M8" s="3">
-        <f t="shared" si="3"/>
         <v>62.57</v>
       </c>
       <c r="O8" s="3">
-        <f t="shared" si="4"/>
         <v>100</v>
       </c>
     </row>
@@ -3303,33 +2718,27 @@
         <v>895</v>
       </c>
       <c r="F9" s="2">
-        <f>SUMIFS([2]lolos_snbp!$E$2:$E$49,[2]lolos_snbp!$D$2:$D$49,D9,[2]lolos_snbp!$C$2:$C$49,C9)</f>
         <v>30</v>
       </c>
       <c r="G9" s="3">
-        <f t="shared" si="0"/>
         <v>3.35</v>
       </c>
       <c r="H9">
         <v>408</v>
       </c>
       <c r="I9" s="3">
-        <f t="shared" si="1"/>
         <v>45.59</v>
       </c>
       <c r="K9" s="3">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L9">
         <v>487</v>
       </c>
       <c r="M9" s="3">
-        <f t="shared" si="3"/>
         <v>54.41</v>
       </c>
       <c r="O9" s="3">
-        <f t="shared" si="4"/>
         <v>100</v>
       </c>
     </row>
@@ -3351,33 +2760,27 @@
         <v>784</v>
       </c>
       <c r="F10" s="2">
-        <f>SUMIFS([2]lolos_snbp!$E$2:$E$49,[2]lolos_snbp!$D$2:$D$49,D10,[2]lolos_snbp!$C$2:$C$49,C10)</f>
         <v>40</v>
       </c>
       <c r="G10" s="3">
-        <f t="shared" si="0"/>
         <v>5.0999999999999996</v>
       </c>
       <c r="H10">
         <v>335</v>
       </c>
       <c r="I10" s="3">
-        <f t="shared" si="1"/>
         <v>42.73</v>
       </c>
       <c r="K10" s="3">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L10">
         <v>449</v>
       </c>
       <c r="M10" s="3">
-        <f t="shared" si="3"/>
         <v>57.27</v>
       </c>
       <c r="O10" s="3">
-        <f t="shared" si="4"/>
         <v>100</v>
       </c>
     </row>
@@ -3399,33 +2802,27 @@
         <v>781</v>
       </c>
       <c r="F11" s="2">
-        <f>SUMIFS([2]lolos_snbp!$E$2:$E$49,[2]lolos_snbp!$D$2:$D$49,D11,[2]lolos_snbp!$C$2:$C$49,C11)</f>
         <v>10</v>
       </c>
       <c r="G11" s="3">
-        <f t="shared" si="0"/>
         <v>1.28</v>
       </c>
       <c r="H11">
         <v>282</v>
       </c>
       <c r="I11" s="3">
-        <f t="shared" si="1"/>
         <v>36.11</v>
       </c>
       <c r="K11" s="3">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L11">
         <v>499</v>
       </c>
       <c r="M11" s="3">
-        <f t="shared" si="3"/>
         <v>63.89</v>
       </c>
       <c r="O11" s="3">
-        <f t="shared" si="4"/>
         <v>100</v>
       </c>
     </row>
@@ -3447,33 +2844,27 @@
         <v>777</v>
       </c>
       <c r="F12" s="2">
-        <f>SUMIFS([2]lolos_snbp!$E$2:$E$49,[2]lolos_snbp!$D$2:$D$49,D12,[2]lolos_snbp!$C$2:$C$49,C12)</f>
         <v>20</v>
       </c>
       <c r="G12" s="3">
-        <f t="shared" si="0"/>
         <v>2.57</v>
       </c>
       <c r="H12">
         <v>346</v>
       </c>
       <c r="I12" s="3">
-        <f t="shared" si="1"/>
         <v>44.53</v>
       </c>
       <c r="K12" s="3">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L12">
         <v>431</v>
       </c>
       <c r="M12" s="3">
-        <f t="shared" si="3"/>
         <v>55.47</v>
       </c>
       <c r="O12" s="3">
-        <f t="shared" si="4"/>
         <v>100</v>
       </c>
     </row>
@@ -3495,33 +2886,27 @@
         <v>696</v>
       </c>
       <c r="F13" s="2">
-        <f>SUMIFS([2]lolos_snbp!$E$2:$E$49,[2]lolos_snbp!$D$2:$D$49,D13,[2]lolos_snbp!$C$2:$C$49,C13)</f>
         <v>12</v>
       </c>
       <c r="G13" s="3">
-        <f t="shared" si="0"/>
         <v>1.72</v>
       </c>
       <c r="H13">
         <v>306</v>
       </c>
       <c r="I13" s="3">
-        <f t="shared" si="1"/>
         <v>43.97</v>
       </c>
       <c r="K13" s="3">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L13">
         <v>390</v>
       </c>
       <c r="M13" s="3">
-        <f t="shared" si="3"/>
         <v>56.03</v>
       </c>
       <c r="O13" s="3">
-        <f t="shared" si="4"/>
         <v>100</v>
       </c>
     </row>
@@ -3543,33 +2928,27 @@
         <v>663</v>
       </c>
       <c r="F14" s="2">
-        <f>SUMIFS([2]lolos_snbp!$E$2:$E$49,[2]lolos_snbp!$D$2:$D$49,D14,[2]lolos_snbp!$C$2:$C$49,C14)</f>
         <v>50</v>
       </c>
       <c r="G14" s="3">
-        <f t="shared" si="0"/>
         <v>7.54</v>
       </c>
       <c r="H14">
         <v>237</v>
       </c>
       <c r="I14" s="3">
-        <f t="shared" si="1"/>
         <v>35.75</v>
       </c>
       <c r="K14" s="3">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L14">
         <v>426</v>
       </c>
       <c r="M14" s="3">
-        <f t="shared" si="3"/>
         <v>64.25</v>
       </c>
       <c r="O14" s="3">
-        <f t="shared" si="4"/>
         <v>100</v>
       </c>
     </row>
@@ -3591,33 +2970,27 @@
         <v>621</v>
       </c>
       <c r="F15" s="2">
-        <f>SUMIFS([2]lolos_snbp!$E$2:$E$49,[2]lolos_snbp!$D$2:$D$49,D15,[2]lolos_snbp!$C$2:$C$49,C15)</f>
         <v>40</v>
       </c>
       <c r="G15" s="3">
-        <f t="shared" si="0"/>
         <v>6.44</v>
       </c>
       <c r="H15">
         <v>230</v>
       </c>
       <c r="I15" s="3">
-        <f t="shared" si="1"/>
         <v>37.04</v>
       </c>
       <c r="K15" s="3">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L15">
         <v>391</v>
       </c>
       <c r="M15" s="3">
-        <f t="shared" si="3"/>
         <v>62.96</v>
       </c>
       <c r="O15" s="3">
-        <f t="shared" si="4"/>
         <v>100</v>
       </c>
     </row>
@@ -3639,33 +3012,27 @@
         <v>543</v>
       </c>
       <c r="F16" s="2">
-        <f>SUMIFS([2]lolos_snbp!$E$2:$E$49,[2]lolos_snbp!$D$2:$D$49,D16,[2]lolos_snbp!$C$2:$C$49,C16)</f>
         <v>40</v>
       </c>
       <c r="G16" s="3">
-        <f t="shared" si="0"/>
         <v>7.37</v>
       </c>
       <c r="H16">
         <v>258</v>
       </c>
       <c r="I16" s="3">
-        <f t="shared" si="1"/>
         <v>47.51</v>
       </c>
       <c r="K16" s="3">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L16">
         <v>285</v>
       </c>
       <c r="M16" s="3">
-        <f t="shared" si="3"/>
         <v>52.49</v>
       </c>
       <c r="O16" s="3">
-        <f t="shared" si="4"/>
         <v>100</v>
       </c>
     </row>
@@ -3687,33 +3054,27 @@
         <v>541</v>
       </c>
       <c r="F17" s="2">
-        <f>SUMIFS([2]lolos_snbp!$E$2:$E$49,[2]lolos_snbp!$D$2:$D$49,D17,[2]lolos_snbp!$C$2:$C$49,C17)</f>
         <v>40</v>
       </c>
       <c r="G17" s="3">
-        <f t="shared" si="0"/>
         <v>7.39</v>
       </c>
       <c r="H17">
         <v>184</v>
       </c>
       <c r="I17" s="3">
-        <f t="shared" si="1"/>
         <v>34.01</v>
       </c>
       <c r="K17" s="3">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L17">
         <v>357</v>
       </c>
       <c r="M17" s="3">
-        <f t="shared" si="3"/>
         <v>65.990000000000009</v>
       </c>
       <c r="O17" s="3">
-        <f t="shared" si="4"/>
         <v>100</v>
       </c>
     </row>
@@ -3735,33 +3096,27 @@
         <v>527</v>
       </c>
       <c r="F18" s="2">
-        <f>SUMIFS([2]lolos_snbp!$E$2:$E$49,[2]lolos_snbp!$D$2:$D$49,D18,[2]lolos_snbp!$C$2:$C$49,C18)</f>
         <v>40</v>
       </c>
       <c r="G18" s="3">
-        <f t="shared" si="0"/>
         <v>7.59</v>
       </c>
       <c r="H18">
         <v>237</v>
       </c>
       <c r="I18" s="3">
-        <f t="shared" si="1"/>
         <v>44.97</v>
       </c>
       <c r="K18" s="3">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L18">
         <v>290</v>
       </c>
       <c r="M18" s="3">
-        <f t="shared" si="3"/>
         <v>55.03</v>
       </c>
       <c r="O18" s="3">
-        <f t="shared" si="4"/>
         <v>100</v>
       </c>
     </row>
@@ -3783,33 +3138,27 @@
         <v>523</v>
       </c>
       <c r="F19" s="2">
-        <f>SUMIFS([2]lolos_snbp!$E$2:$E$49,[2]lolos_snbp!$D$2:$D$49,D19,[2]lolos_snbp!$C$2:$C$49,C19)</f>
         <v>73</v>
       </c>
       <c r="G19" s="3">
-        <f t="shared" si="0"/>
         <v>13.96</v>
       </c>
       <c r="H19">
         <v>224</v>
       </c>
       <c r="I19" s="3">
-        <f t="shared" si="1"/>
         <v>42.83</v>
       </c>
       <c r="K19" s="3">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L19">
         <v>299</v>
       </c>
       <c r="M19" s="3">
-        <f t="shared" si="3"/>
         <v>57.17</v>
       </c>
       <c r="O19" s="3">
-        <f t="shared" si="4"/>
         <v>100</v>
       </c>
     </row>
@@ -3831,33 +3180,27 @@
         <v>519</v>
       </c>
       <c r="F20" s="2">
-        <f>SUMIFS([2]lolos_snbp!$E$2:$E$49,[2]lolos_snbp!$D$2:$D$49,D20,[2]lolos_snbp!$C$2:$C$49,C20)</f>
         <v>40</v>
       </c>
       <c r="G20" s="3">
-        <f t="shared" si="0"/>
         <v>7.71</v>
       </c>
       <c r="H20">
         <v>201</v>
       </c>
       <c r="I20" s="3">
-        <f t="shared" si="1"/>
         <v>38.729999999999997</v>
       </c>
       <c r="K20" s="3">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L20">
         <v>318</v>
       </c>
       <c r="M20" s="3">
-        <f t="shared" si="3"/>
         <v>61.27</v>
       </c>
       <c r="O20" s="3">
-        <f t="shared" si="4"/>
         <v>100</v>
       </c>
     </row>
@@ -3879,33 +3222,27 @@
         <v>432</v>
       </c>
       <c r="F21" s="2">
-        <f>SUMIFS([2]lolos_snbp!$E$2:$E$49,[2]lolos_snbp!$D$2:$D$49,D21,[2]lolos_snbp!$C$2:$C$49,C21)</f>
         <v>31</v>
       </c>
       <c r="G21" s="3">
-        <f t="shared" si="0"/>
         <v>7.18</v>
       </c>
       <c r="H21">
         <v>156</v>
       </c>
       <c r="I21" s="3">
-        <f t="shared" si="1"/>
         <v>36.11</v>
       </c>
       <c r="K21" s="3">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L21">
         <v>276</v>
       </c>
       <c r="M21" s="3">
-        <f t="shared" si="3"/>
         <v>63.89</v>
       </c>
       <c r="O21" s="3">
-        <f t="shared" si="4"/>
         <v>100</v>
       </c>
     </row>
@@ -3927,33 +3264,27 @@
         <v>428</v>
       </c>
       <c r="F22" s="2">
-        <f>SUMIFS([2]lolos_snbp!$E$2:$E$49,[2]lolos_snbp!$D$2:$D$49,D22,[2]lolos_snbp!$C$2:$C$49,C22)</f>
         <v>40</v>
       </c>
       <c r="G22" s="3">
-        <f t="shared" si="0"/>
         <v>9.35</v>
       </c>
       <c r="H22">
         <v>187</v>
       </c>
       <c r="I22" s="3">
-        <f t="shared" si="1"/>
         <v>43.69</v>
       </c>
       <c r="K22" s="3">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L22">
         <v>241</v>
       </c>
       <c r="M22" s="3">
-        <f t="shared" si="3"/>
         <v>56.31</v>
       </c>
       <c r="O22" s="3">
-        <f t="shared" si="4"/>
         <v>100</v>
       </c>
     </row>
@@ -3975,33 +3306,27 @@
         <v>409</v>
       </c>
       <c r="F23" s="2">
-        <f>SUMIFS([2]lolos_snbp!$E$2:$E$49,[2]lolos_snbp!$D$2:$D$49,D23,[2]lolos_snbp!$C$2:$C$49,C23)</f>
         <v>41</v>
       </c>
       <c r="G23" s="3">
-        <f t="shared" si="0"/>
         <v>10.02</v>
       </c>
       <c r="H23">
         <v>172</v>
       </c>
       <c r="I23" s="3">
-        <f t="shared" si="1"/>
         <v>42.05</v>
       </c>
       <c r="K23" s="3">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L23">
         <v>237</v>
       </c>
       <c r="M23" s="3">
-        <f t="shared" si="3"/>
         <v>57.95</v>
       </c>
       <c r="O23" s="3">
-        <f t="shared" si="4"/>
         <v>100</v>
       </c>
     </row>
@@ -4023,33 +3348,27 @@
         <v>379</v>
       </c>
       <c r="F24" s="2">
-        <f>SUMIFS([2]lolos_snbp!$E$2:$E$49,[2]lolos_snbp!$D$2:$D$49,D24,[2]lolos_snbp!$C$2:$C$49,C24)</f>
         <v>40</v>
       </c>
       <c r="G24" s="3">
-        <f t="shared" si="0"/>
         <v>10.55</v>
       </c>
       <c r="H24">
         <v>159</v>
       </c>
       <c r="I24" s="3">
-        <f t="shared" si="1"/>
         <v>41.95</v>
       </c>
       <c r="K24" s="3">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L24">
         <v>220</v>
       </c>
       <c r="M24" s="3">
-        <f t="shared" si="3"/>
         <v>58.05</v>
       </c>
       <c r="O24" s="3">
-        <f t="shared" si="4"/>
         <v>100</v>
       </c>
     </row>
@@ -4071,33 +3390,27 @@
         <v>374</v>
       </c>
       <c r="F25" s="2">
-        <f>SUMIFS([2]lolos_snbp!$E$2:$E$49,[2]lolos_snbp!$D$2:$D$49,D25,[2]lolos_snbp!$C$2:$C$49,C25)</f>
         <v>17</v>
       </c>
       <c r="G25" s="3">
-        <f t="shared" si="0"/>
         <v>4.55</v>
       </c>
       <c r="H25">
         <v>163</v>
       </c>
       <c r="I25" s="3">
-        <f t="shared" si="1"/>
         <v>43.58</v>
       </c>
       <c r="K25" s="3">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L25">
         <v>211</v>
       </c>
       <c r="M25" s="3">
-        <f t="shared" si="3"/>
         <v>56.42</v>
       </c>
       <c r="O25" s="3">
-        <f t="shared" si="4"/>
         <v>100</v>
       </c>
     </row>
@@ -4119,33 +3432,27 @@
         <v>368</v>
       </c>
       <c r="F26" s="2">
-        <f>SUMIFS([2]lolos_snbp!$E$2:$E$49,[2]lolos_snbp!$D$2:$D$49,D26,[2]lolos_snbp!$C$2:$C$49,C26)</f>
         <v>60</v>
       </c>
       <c r="G26" s="3">
-        <f t="shared" si="0"/>
         <v>16.3</v>
       </c>
       <c r="H26">
         <v>131</v>
       </c>
       <c r="I26" s="3">
-        <f t="shared" si="1"/>
         <v>35.6</v>
       </c>
       <c r="K26" s="3">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L26">
         <v>237</v>
       </c>
       <c r="M26" s="3">
-        <f t="shared" si="3"/>
         <v>64.400000000000006</v>
       </c>
       <c r="O26" s="3">
-        <f t="shared" si="4"/>
         <v>100</v>
       </c>
     </row>
@@ -4167,33 +3474,27 @@
         <v>363</v>
       </c>
       <c r="F27" s="2">
-        <f>SUMIFS([2]lolos_snbp!$E$2:$E$49,[2]lolos_snbp!$D$2:$D$49,D27,[2]lolos_snbp!$C$2:$C$49,C27)</f>
         <v>40</v>
       </c>
       <c r="G27" s="3">
-        <f t="shared" si="0"/>
         <v>11.02</v>
       </c>
       <c r="H27">
         <v>164</v>
       </c>
       <c r="I27" s="3">
-        <f t="shared" si="1"/>
         <v>45.18</v>
       </c>
       <c r="K27" s="3">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L27">
         <v>199</v>
       </c>
       <c r="M27" s="3">
-        <f t="shared" si="3"/>
         <v>54.82</v>
       </c>
       <c r="O27" s="3">
-        <f t="shared" si="4"/>
         <v>100</v>
       </c>
     </row>
@@ -4215,33 +3516,27 @@
         <v>361</v>
       </c>
       <c r="F28" s="2">
-        <f>SUMIFS([2]lolos_snbp!$E$2:$E$49,[2]lolos_snbp!$D$2:$D$49,D28,[2]lolos_snbp!$C$2:$C$49,C28)</f>
         <v>30</v>
       </c>
       <c r="G28" s="3">
-        <f t="shared" si="0"/>
         <v>8.31</v>
       </c>
       <c r="H28">
         <v>155</v>
       </c>
       <c r="I28" s="3">
-        <f t="shared" si="1"/>
         <v>42.94</v>
       </c>
       <c r="K28" s="3">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L28">
         <v>206</v>
       </c>
       <c r="M28" s="3">
-        <f t="shared" si="3"/>
         <v>57.06</v>
       </c>
       <c r="O28" s="3">
-        <f t="shared" si="4"/>
         <v>100</v>
       </c>
     </row>
@@ -4263,33 +3558,27 @@
         <v>329</v>
       </c>
       <c r="F29" s="2">
-        <f>SUMIFS([2]lolos_snbp!$E$2:$E$49,[2]lolos_snbp!$D$2:$D$49,D29,[2]lolos_snbp!$C$2:$C$49,C29)</f>
         <v>20</v>
       </c>
       <c r="G29" s="3">
-        <f t="shared" si="0"/>
         <v>6.08</v>
       </c>
       <c r="H29">
         <v>130</v>
       </c>
       <c r="I29" s="3">
-        <f t="shared" si="1"/>
         <v>39.51</v>
       </c>
       <c r="K29" s="3">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L29">
         <v>199</v>
       </c>
       <c r="M29" s="3">
-        <f t="shared" si="3"/>
         <v>60.49</v>
       </c>
       <c r="O29" s="3">
-        <f t="shared" si="4"/>
         <v>100</v>
       </c>
     </row>
@@ -4311,33 +3600,27 @@
         <v>320</v>
       </c>
       <c r="F30" s="2">
-        <f>SUMIFS([2]lolos_snbp!$E$2:$E$49,[2]lolos_snbp!$D$2:$D$49,D30,[2]lolos_snbp!$C$2:$C$49,C30)</f>
         <v>40</v>
       </c>
       <c r="G30" s="3">
-        <f t="shared" si="0"/>
         <v>12.5</v>
       </c>
       <c r="H30">
         <v>138</v>
       </c>
       <c r="I30" s="3">
-        <f t="shared" si="1"/>
         <v>43.13</v>
       </c>
       <c r="K30" s="3">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L30">
         <v>182</v>
       </c>
       <c r="M30" s="3">
-        <f t="shared" si="3"/>
         <v>56.87</v>
       </c>
       <c r="O30" s="3">
-        <f t="shared" si="4"/>
         <v>100</v>
       </c>
     </row>
@@ -4359,33 +3642,27 @@
         <v>288</v>
       </c>
       <c r="F31" s="2">
-        <f>SUMIFS([2]lolos_snbp!$E$2:$E$49,[2]lolos_snbp!$D$2:$D$49,D31,[2]lolos_snbp!$C$2:$C$49,C31)</f>
         <v>20</v>
       </c>
       <c r="G31" s="3">
-        <f t="shared" si="0"/>
         <v>6.94</v>
       </c>
       <c r="H31">
         <v>130</v>
       </c>
       <c r="I31" s="3">
-        <f t="shared" si="1"/>
         <v>45.14</v>
       </c>
       <c r="K31" s="3">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L31">
         <v>158</v>
       </c>
       <c r="M31" s="3">
-        <f t="shared" si="3"/>
         <v>54.86</v>
       </c>
       <c r="O31" s="3">
-        <f t="shared" si="4"/>
         <v>100</v>
       </c>
     </row>
@@ -4407,33 +3684,27 @@
         <v>228</v>
       </c>
       <c r="F32" s="2">
-        <f>SUMIFS([2]lolos_snbp!$E$2:$E$49,[2]lolos_snbp!$D$2:$D$49,D32,[2]lolos_snbp!$C$2:$C$49,C32)</f>
         <v>30</v>
       </c>
       <c r="G32" s="3">
-        <f t="shared" si="0"/>
         <v>13.16</v>
       </c>
       <c r="H32">
         <v>81</v>
       </c>
       <c r="I32" s="3">
-        <f t="shared" si="1"/>
         <v>35.53</v>
       </c>
       <c r="K32" s="3">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L32">
         <v>147</v>
       </c>
       <c r="M32" s="3">
-        <f t="shared" si="3"/>
         <v>64.47</v>
       </c>
       <c r="O32" s="3">
-        <f t="shared" si="4"/>
         <v>100</v>
       </c>
     </row>
@@ -4455,33 +3726,27 @@
         <v>207</v>
       </c>
       <c r="F33" s="2">
-        <f>SUMIFS([2]lolos_snbp!$E$2:$E$49,[2]lolos_snbp!$D$2:$D$49,D33,[2]lolos_snbp!$C$2:$C$49,C33)</f>
         <v>20</v>
       </c>
       <c r="G33" s="3">
-        <f t="shared" si="0"/>
         <v>9.66</v>
       </c>
       <c r="H33">
         <v>81</v>
       </c>
       <c r="I33" s="3">
-        <f t="shared" si="1"/>
         <v>39.130000000000003</v>
       </c>
       <c r="K33" s="3">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L33">
         <v>126</v>
       </c>
       <c r="M33" s="3">
-        <f t="shared" si="3"/>
         <v>60.87</v>
       </c>
       <c r="O33" s="3">
-        <f t="shared" si="4"/>
         <v>100</v>
       </c>
     </row>
@@ -4503,33 +3768,27 @@
         <v>193</v>
       </c>
       <c r="F34" s="2">
-        <f>SUMIFS([2]lolos_snbp!$E$2:$E$49,[2]lolos_snbp!$D$2:$D$49,D34,[2]lolos_snbp!$C$2:$C$49,C34)</f>
         <v>50</v>
       </c>
       <c r="G34" s="3">
-        <f t="shared" si="0"/>
         <v>25.91</v>
       </c>
       <c r="H34">
         <v>73</v>
       </c>
       <c r="I34" s="3">
-        <f t="shared" si="1"/>
         <v>37.82</v>
       </c>
       <c r="K34" s="3">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L34">
         <v>120</v>
       </c>
       <c r="M34" s="3">
-        <f t="shared" si="3"/>
         <v>62.18</v>
       </c>
       <c r="O34" s="3">
-        <f t="shared" si="4"/>
         <v>100</v>
       </c>
     </row>
@@ -4551,33 +3810,27 @@
         <v>187</v>
       </c>
       <c r="F35" s="2">
-        <f>SUMIFS([2]lolos_snbp!$E$2:$E$49,[2]lolos_snbp!$D$2:$D$49,D35,[2]lolos_snbp!$C$2:$C$49,C35)</f>
         <v>20</v>
       </c>
       <c r="G35" s="3">
-        <f t="shared" si="0"/>
         <v>10.7</v>
       </c>
       <c r="H35">
         <v>54</v>
       </c>
       <c r="I35" s="3">
-        <f t="shared" si="1"/>
         <v>28.88</v>
       </c>
       <c r="K35" s="3">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L35">
         <v>133</v>
       </c>
       <c r="M35" s="3">
-        <f t="shared" si="3"/>
         <v>71.12</v>
       </c>
       <c r="O35" s="3">
-        <f t="shared" si="4"/>
         <v>100</v>
       </c>
     </row>
@@ -4599,33 +3852,27 @@
         <v>171</v>
       </c>
       <c r="F36" s="2">
-        <f>SUMIFS([2]lolos_snbp!$E$2:$E$49,[2]lolos_snbp!$D$2:$D$49,D36,[2]lolos_snbp!$C$2:$C$49,C36)</f>
         <v>20</v>
       </c>
       <c r="G36" s="3">
-        <f t="shared" si="0"/>
         <v>11.7</v>
       </c>
       <c r="H36">
         <v>67</v>
       </c>
       <c r="I36" s="3">
-        <f t="shared" si="1"/>
         <v>39.18</v>
       </c>
       <c r="K36" s="3">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L36">
         <v>104</v>
       </c>
       <c r="M36" s="3">
-        <f t="shared" si="3"/>
         <v>60.82</v>
       </c>
       <c r="O36" s="3">
-        <f t="shared" si="4"/>
         <v>100</v>
       </c>
     </row>
@@ -4647,33 +3894,27 @@
         <v>139</v>
       </c>
       <c r="F37" s="2">
-        <f>SUMIFS([2]lolos_snbp!$E$2:$E$49,[2]lolos_snbp!$D$2:$D$49,D37,[2]lolos_snbp!$C$2:$C$49,C37)</f>
         <v>30</v>
       </c>
       <c r="G37" s="3">
-        <f t="shared" si="0"/>
         <v>21.58</v>
       </c>
       <c r="H37">
         <v>54</v>
       </c>
       <c r="I37" s="3">
-        <f t="shared" si="1"/>
         <v>38.85</v>
       </c>
       <c r="K37" s="3">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L37">
         <v>85</v>
       </c>
       <c r="M37" s="3">
-        <f t="shared" si="3"/>
         <v>61.15</v>
       </c>
       <c r="O37" s="3">
-        <f t="shared" si="4"/>
         <v>100</v>
       </c>
     </row>
@@ -4695,33 +3936,27 @@
         <v>134</v>
       </c>
       <c r="F38" s="2">
-        <f>SUMIFS([2]lolos_snbp!$E$2:$E$49,[2]lolos_snbp!$D$2:$D$49,D38,[2]lolos_snbp!$C$2:$C$49,C38)</f>
         <v>10</v>
       </c>
       <c r="G38" s="3">
-        <f t="shared" si="0"/>
         <v>7.46</v>
       </c>
       <c r="H38">
         <v>61</v>
       </c>
       <c r="I38" s="3">
-        <f t="shared" si="1"/>
         <v>45.52</v>
       </c>
       <c r="K38" s="3">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L38">
         <v>73</v>
       </c>
       <c r="M38" s="3">
-        <f t="shared" si="3"/>
         <v>54.48</v>
       </c>
       <c r="O38" s="3">
-        <f t="shared" si="4"/>
         <v>100</v>
       </c>
     </row>
@@ -4733,7 +3968,7 @@
         <v>311048</v>
       </c>
       <c r="C39" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="D39" t="str">
         <f>VLOOKUP(B39,[1]PRODI_2019!$C$2:$I$78,7,FALSE)</f>
@@ -4743,33 +3978,27 @@
         <v>125</v>
       </c>
       <c r="F39" s="2">
-        <f>SUMIFS([2]lolos_snbp!$E$2:$E$49,[2]lolos_snbp!$D$2:$D$49,D39,[2]lolos_snbp!$C$2:$C$49,C39)</f>
         <v>22</v>
       </c>
       <c r="G39" s="3">
-        <f t="shared" si="0"/>
         <v>17.600000000000001</v>
       </c>
       <c r="H39">
         <v>48</v>
       </c>
       <c r="I39" s="3">
-        <f t="shared" si="1"/>
         <v>38.4</v>
       </c>
       <c r="K39" s="3">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L39">
         <v>77</v>
       </c>
       <c r="M39" s="3">
-        <f t="shared" si="3"/>
         <v>61.6</v>
       </c>
       <c r="O39" s="3">
-        <f t="shared" si="4"/>
         <v>100</v>
       </c>
     </row>
@@ -4791,33 +4020,27 @@
         <v>119</v>
       </c>
       <c r="F40" s="2">
-        <f>SUMIFS([2]lolos_snbp!$E$2:$E$49,[2]lolos_snbp!$D$2:$D$49,D40,[2]lolos_snbp!$C$2:$C$49,C40)</f>
         <v>20</v>
       </c>
       <c r="G40" s="3">
-        <f t="shared" si="0"/>
         <v>16.809999999999999</v>
       </c>
       <c r="H40">
         <v>51</v>
       </c>
       <c r="I40" s="3">
-        <f t="shared" si="1"/>
         <v>42.86</v>
       </c>
       <c r="K40" s="3">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L40">
         <v>68</v>
       </c>
       <c r="M40" s="3">
-        <f t="shared" si="3"/>
         <v>57.14</v>
       </c>
       <c r="O40" s="3">
-        <f t="shared" si="4"/>
         <v>100</v>
       </c>
     </row>
@@ -4839,33 +4062,27 @@
         <v>114</v>
       </c>
       <c r="F41" s="2">
-        <f>SUMIFS([2]lolos_snbp!$E$2:$E$49,[2]lolos_snbp!$D$2:$D$49,D41,[2]lolos_snbp!$C$2:$C$49,C41)</f>
         <v>22</v>
       </c>
       <c r="G41" s="3">
-        <f t="shared" si="0"/>
         <v>19.3</v>
       </c>
       <c r="H41">
         <v>29</v>
       </c>
       <c r="I41" s="3">
-        <f t="shared" si="1"/>
         <v>25.44</v>
       </c>
       <c r="K41" s="3">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L41">
         <v>85</v>
       </c>
       <c r="M41" s="3">
-        <f t="shared" si="3"/>
         <v>74.56</v>
       </c>
       <c r="O41" s="3">
-        <f t="shared" si="4"/>
         <v>100</v>
       </c>
     </row>
@@ -4887,33 +4104,27 @@
         <v>92</v>
       </c>
       <c r="F42" s="2">
-        <f>SUMIFS([2]lolos_snbp!$E$2:$E$49,[2]lolos_snbp!$D$2:$D$49,D42,[2]lolos_snbp!$C$2:$C$49,C42)</f>
         <v>20</v>
       </c>
       <c r="G42" s="3">
-        <f t="shared" si="0"/>
         <v>21.74</v>
       </c>
       <c r="H42">
         <v>37</v>
       </c>
       <c r="I42" s="3">
-        <f t="shared" si="1"/>
         <v>40.22</v>
       </c>
       <c r="K42" s="3">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L42">
         <v>55</v>
       </c>
       <c r="M42" s="3">
-        <f t="shared" si="3"/>
         <v>59.78</v>
       </c>
       <c r="O42" s="3">
-        <f t="shared" si="4"/>
         <v>100</v>
       </c>
     </row>
@@ -4935,33 +4146,27 @@
         <v>89</v>
       </c>
       <c r="F43" s="2">
-        <f>SUMIFS([2]lolos_snbp!$E$2:$E$49,[2]lolos_snbp!$D$2:$D$49,D43,[2]lolos_snbp!$C$2:$C$49,C43)</f>
         <v>22</v>
       </c>
       <c r="G43" s="3">
-        <f t="shared" si="0"/>
         <v>24.72</v>
       </c>
       <c r="H43">
         <v>28</v>
       </c>
       <c r="I43" s="3">
-        <f t="shared" si="1"/>
         <v>31.46</v>
       </c>
       <c r="K43" s="3">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L43">
         <v>61</v>
       </c>
       <c r="M43" s="3">
-        <f t="shared" si="3"/>
         <v>68.539999999999992</v>
       </c>
       <c r="O43" s="3">
-        <f t="shared" si="4"/>
         <v>100</v>
       </c>
     </row>
@@ -4983,33 +4188,27 @@
         <v>79</v>
       </c>
       <c r="F44" s="2">
-        <f>SUMIFS([2]lolos_snbp!$E$2:$E$49,[2]lolos_snbp!$D$2:$D$49,D44,[2]lolos_snbp!$C$2:$C$49,C44)</f>
         <v>20</v>
       </c>
       <c r="G44" s="3">
-        <f t="shared" si="0"/>
         <v>25.32</v>
       </c>
       <c r="H44">
         <v>38</v>
       </c>
       <c r="I44" s="3">
-        <f t="shared" si="1"/>
         <v>48.1</v>
       </c>
       <c r="K44" s="3">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L44">
         <v>41</v>
       </c>
       <c r="M44" s="3">
-        <f t="shared" si="3"/>
         <v>51.9</v>
       </c>
       <c r="O44" s="3">
-        <f t="shared" si="4"/>
         <v>100</v>
       </c>
     </row>
@@ -5031,33 +4230,27 @@
         <v>79</v>
       </c>
       <c r="F45" s="2">
-        <f>SUMIFS([2]lolos_snbp!$E$2:$E$49,[2]lolos_snbp!$D$2:$D$49,D45,[2]lolos_snbp!$C$2:$C$49,C45)</f>
         <v>30</v>
       </c>
       <c r="G45" s="3">
-        <f t="shared" si="0"/>
         <v>37.97</v>
       </c>
       <c r="H45">
         <v>26</v>
       </c>
       <c r="I45" s="3">
-        <f t="shared" si="1"/>
         <v>32.909999999999997</v>
       </c>
       <c r="K45" s="3">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L45">
         <v>53</v>
       </c>
       <c r="M45" s="3">
-        <f t="shared" si="3"/>
         <v>67.09</v>
       </c>
       <c r="O45" s="3">
-        <f t="shared" si="4"/>
         <v>100</v>
       </c>
     </row>
@@ -5079,33 +4272,27 @@
         <v>73</v>
       </c>
       <c r="F46" s="2">
-        <f>SUMIFS([2]lolos_snbp!$E$2:$E$49,[2]lolos_snbp!$D$2:$D$49,D46,[2]lolos_snbp!$C$2:$C$49,C46)</f>
         <v>20</v>
       </c>
       <c r="G46" s="3">
-        <f t="shared" si="0"/>
         <v>27.4</v>
       </c>
       <c r="H46">
         <v>38</v>
       </c>
       <c r="I46" s="3">
-        <f t="shared" si="1"/>
         <v>52.05</v>
       </c>
       <c r="K46" s="3">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L46">
         <v>35</v>
       </c>
       <c r="M46" s="3">
-        <f t="shared" si="3"/>
         <v>47.95</v>
       </c>
       <c r="O46" s="3">
-        <f t="shared" si="4"/>
         <v>100</v>
       </c>
     </row>
@@ -5126,33 +4313,27 @@
         <v>73</v>
       </c>
       <c r="F47" s="2">
-        <f>SUMIFS([2]lolos_snbp!$E$2:$E$49,[2]lolos_snbp!$D$2:$D$49,D47,[2]lolos_snbp!$C$2:$C$49,C47)</f>
         <v>10</v>
       </c>
       <c r="G47" s="3">
-        <f t="shared" si="0"/>
         <v>13.7</v>
       </c>
       <c r="H47">
         <v>10</v>
       </c>
       <c r="I47" s="3">
-        <f t="shared" si="1"/>
         <v>13.7</v>
       </c>
       <c r="K47" s="3">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L47">
         <v>63</v>
       </c>
       <c r="M47" s="3">
-        <f t="shared" si="3"/>
         <v>86.3</v>
       </c>
       <c r="O47" s="3">
-        <f t="shared" si="4"/>
         <v>100</v>
       </c>
     </row>
@@ -5174,33 +4355,27 @@
         <v>72</v>
       </c>
       <c r="F48" s="2">
-        <f>SUMIFS([2]lolos_snbp!$E$2:$E$49,[2]lolos_snbp!$D$2:$D$49,D48,[2]lolos_snbp!$C$2:$C$49,C48)</f>
         <v>22</v>
       </c>
       <c r="G48" s="3">
-        <f t="shared" si="0"/>
         <v>30.56</v>
       </c>
       <c r="H48">
         <v>19</v>
       </c>
       <c r="I48" s="3">
-        <f t="shared" si="1"/>
         <v>26.39</v>
       </c>
       <c r="K48" s="3">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L48">
         <v>53</v>
       </c>
       <c r="M48" s="3">
-        <f t="shared" si="3"/>
         <v>73.61</v>
       </c>
       <c r="O48" s="3">
-        <f t="shared" si="4"/>
         <v>100</v>
       </c>
     </row>
@@ -5222,33 +4397,27 @@
         <v>52</v>
       </c>
       <c r="F49" s="2">
-        <f>SUMIFS([2]lolos_snbp!$E$2:$E$49,[2]lolos_snbp!$D$2:$D$49,D49,[2]lolos_snbp!$C$2:$C$49,C49)</f>
         <v>20</v>
       </c>
       <c r="G49" s="3">
-        <f t="shared" si="0"/>
         <v>38.46</v>
       </c>
       <c r="H49">
         <v>37</v>
       </c>
       <c r="I49" s="3">
-        <f t="shared" si="1"/>
         <v>71.150000000000006</v>
       </c>
       <c r="K49" s="3">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L49">
         <v>15</v>
       </c>
       <c r="M49" s="3">
-        <f t="shared" si="3"/>
         <v>28.849999999999994</v>
       </c>
       <c r="O49" s="3">
-        <f t="shared" si="4"/>
         <v>100</v>
       </c>
     </row>
